--- a/Data/VaccineSchedule.xlsx
+++ b/Data/VaccineSchedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://6kmwxn-my.sharepoint.com/personal/kanggle_globalinfectiousdisease_com/Documents/XMU/likangguo/2025/18 百日咳疫苗/vaccine/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://6kmwxn-my.sharepoint.com/personal/kanggle_globalinfectiousdisease_com/Documents/XMU/likangguo/2025/18 百日咳疫苗/code/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="592" documentId="8_{6B2C8828-AD43-45C3-B957-8962AC28D08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD662C70-0F4C-41E6-8CDD-1CBCD8150A6B}"/>
+  <xr:revisionPtr revIDLastSave="598" documentId="8_{6B2C8828-AD43-45C3-B957-8962AC28D08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90FA1E55-6D99-4F72-B18D-BD4D63D30825}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{04EA11F9-B7BC-471A-98F9-2CFDCD6CFD79}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>VaccinePregnant</t>
-  </si>
-  <si>
     <t>VaccinePregnantTime</t>
   </si>
   <si>
@@ -341,9 +338,6 @@
     <t>CIV</t>
   </si>
   <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
     <t>CMR</t>
   </si>
   <si>
@@ -399,9 +393,6 @@
   </si>
   <si>
     <t>CUW</t>
-  </si>
-  <si>
-    <t>Cura莽ao</t>
   </si>
   <si>
     <t>CYM</t>
@@ -1346,9 +1337,6 @@
     <t>TUR</t>
   </si>
   <si>
-    <t>T眉rkiye</t>
-  </si>
-  <si>
     <t>TUV</t>
   </si>
   <si>
@@ -1474,6 +1462,21 @@
   </si>
   <si>
     <t>VaccineDose</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>VaccinePregnant</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2079,12 +2082,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2147,6 +2154,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2491,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C54A590-6C9E-4CD6-83FD-F000EDADCBB1}">
   <dimension ref="A1:L214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2515,42 +2526,42 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>469</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2580,10 +2591,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2613,10 +2624,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2646,10 +2657,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2679,10 +2690,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2712,10 +2723,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2745,10 +2756,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2778,19 +2789,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2817,10 +2828,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2850,10 +2861,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2883,19 +2894,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2922,19 +2933,19 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2961,10 +2972,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2994,10 +3005,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3027,19 +3038,19 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>46</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -3066,10 +3077,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
         <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3099,10 +3110,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
         <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3132,10 +3143,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
         <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3165,10 +3176,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
         <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3198,10 +3209,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
         <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3231,10 +3242,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
         <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3264,10 +3275,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
         <v>60</v>
-      </c>
-      <c r="B23" t="s">
-        <v>61</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3297,10 +3308,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
         <v>62</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3330,10 +3341,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
         <v>64</v>
-      </c>
-      <c r="B25" t="s">
-        <v>65</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3363,10 +3374,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
         <v>66</v>
-      </c>
-      <c r="B26" t="s">
-        <v>67</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3396,10 +3407,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
         <v>68</v>
-      </c>
-      <c r="B27" t="s">
-        <v>69</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3429,19 +3440,19 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
         <v>70</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
         <v>71</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" t="s">
-        <v>72</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -3468,10 +3479,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
         <v>73</v>
-      </c>
-      <c r="B29" t="s">
-        <v>74</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3501,10 +3512,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
         <v>75</v>
-      </c>
-      <c r="B30" t="s">
-        <v>76</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3534,10 +3545,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
         <v>77</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -3567,10 +3578,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
         <v>79</v>
-      </c>
-      <c r="B32" t="s">
-        <v>80</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -3600,10 +3611,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
         <v>81</v>
-      </c>
-      <c r="B33" t="s">
-        <v>82</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3633,19 +3644,19 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
         <v>83</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
         <v>84</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>85</v>
-      </c>
-      <c r="E34" t="s">
-        <v>86</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -3672,19 +3683,19 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
         <v>87</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
         <v>88</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>89</v>
-      </c>
-      <c r="E35" t="s">
-        <v>90</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3711,10 +3722,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
         <v>91</v>
-      </c>
-      <c r="B36" t="s">
-        <v>92</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3744,10 +3755,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
         <v>93</v>
-      </c>
-      <c r="B37" t="s">
-        <v>94</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -3777,10 +3788,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>468</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -3810,10 +3821,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3843,10 +3854,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -3876,10 +3887,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -3909,10 +3920,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3942,10 +3953,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3975,10 +3986,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -4008,10 +4019,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -4041,10 +4052,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4074,10 +4085,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -4107,10 +4118,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>467</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -4140,10 +4151,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4173,10 +4184,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4206,10 +4217,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -4239,19 +4250,19 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -4278,10 +4289,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -4311,10 +4322,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -4344,10 +4355,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -4377,10 +4388,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4410,10 +4421,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -4443,10 +4454,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -4476,10 +4487,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -4509,10 +4520,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -4542,19 +4553,19 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -4581,10 +4592,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -4614,10 +4625,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -4647,10 +4658,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -4680,10 +4691,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -4713,19 +4724,19 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -4752,10 +4763,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -4785,10 +4796,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -4818,19 +4829,19 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" t="s">
         <v>160</v>
-      </c>
-      <c r="B69" t="s">
-        <v>161</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>162</v>
-      </c>
-      <c r="E69" t="s">
-        <v>163</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4857,10 +4868,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4890,10 +4901,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -4923,10 +4934,10 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -4956,10 +4967,10 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B73" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -4989,10 +5000,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -5022,10 +5033,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -5055,10 +5066,10 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -5088,10 +5099,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -5121,10 +5132,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -5154,10 +5165,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -5187,10 +5198,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -5220,10 +5231,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B81" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -5253,10 +5264,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -5286,10 +5297,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B83" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -5319,10 +5330,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B84" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -5352,19 +5363,19 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5391,10 +5402,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B86" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -5424,19 +5435,19 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E87" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -5463,19 +5474,19 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>198</v>
+      </c>
+      <c r="B88" t="s">
+        <v>199</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>200</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B88" t="s">
-        <v>202</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>203</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -5502,10 +5513,10 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -5535,10 +5546,10 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B90" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -5568,10 +5579,10 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B91" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -5601,19 +5612,19 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B92" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E92" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -5640,19 +5651,19 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B93" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -5679,10 +5690,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B94" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -5712,10 +5723,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B95" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -5745,10 +5756,10 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B96" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -5778,10 +5789,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B97" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -5811,10 +5822,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B98" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -5844,10 +5855,10 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B99" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -5877,10 +5888,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B100" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -5910,10 +5921,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B101" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -5943,10 +5954,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B102" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -5976,10 +5987,10 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -6009,10 +6020,10 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B104" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -6042,10 +6053,10 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B105" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -6075,10 +6086,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B106" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -6108,10 +6119,10 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B107" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -6141,10 +6152,10 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B108" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -6174,10 +6185,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B109" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -6207,10 +6218,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B110" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -6240,10 +6251,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B111" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -6273,10 +6284,10 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B112" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6306,19 +6317,19 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B113" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -6345,10 +6356,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B114" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6378,10 +6389,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B115" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6411,10 +6422,10 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B116" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -6444,10 +6455,10 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B117" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -6477,10 +6488,10 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B118" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -6510,10 +6521,10 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B119" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -6543,10 +6554,10 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B120" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -6576,19 +6587,19 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B121" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E121" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -6615,10 +6626,10 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B122" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -6648,10 +6659,10 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B123" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -6681,10 +6692,10 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B124" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -6714,10 +6725,10 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B125" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -6747,10 +6758,10 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -6780,10 +6791,10 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B127" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -6813,10 +6824,10 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B128" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -6846,10 +6857,10 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B129" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -6879,10 +6890,10 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B130" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -6912,10 +6923,10 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B131" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -6945,10 +6956,10 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B132" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -6978,10 +6989,10 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B133" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -7011,10 +7022,10 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B134" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -7044,10 +7055,10 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B135" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -7077,10 +7088,10 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B136" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -7110,10 +7121,10 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B137" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -7143,10 +7154,10 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B138" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -7176,10 +7187,10 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B139" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -7209,10 +7220,10 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B140" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -7242,10 +7253,10 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B141" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -7275,19 +7286,19 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>310</v>
+      </c>
+      <c r="B142" t="s">
+        <v>311</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>312</v>
+      </c>
+      <c r="E142" t="s">
         <v>313</v>
-      </c>
-      <c r="B142" t="s">
-        <v>314</v>
-      </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-      <c r="D142" t="s">
-        <v>315</v>
-      </c>
-      <c r="E142" t="s">
-        <v>316</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -7314,19 +7325,19 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B143" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -7353,10 +7364,10 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B144" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -7386,10 +7397,10 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B145" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -7419,19 +7430,19 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>321</v>
+      </c>
+      <c r="B146" t="s">
+        <v>322</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>323</v>
+      </c>
+      <c r="E146" t="s">
         <v>324</v>
-      </c>
-      <c r="B146" t="s">
-        <v>325</v>
-      </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146" t="s">
-        <v>326</v>
-      </c>
-      <c r="E146" t="s">
-        <v>327</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -7458,10 +7469,10 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B147" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -7491,10 +7502,10 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B148" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -7524,10 +7535,10 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B149" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -7557,10 +7568,10 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B150" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -7590,10 +7601,10 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B151" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -7623,10 +7634,10 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B152" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -7656,10 +7667,10 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B153" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -7689,19 +7700,19 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B154" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154" t="s">
+        <v>38</v>
+      </c>
+      <c r="E154" t="s">
         <v>39</v>
-      </c>
-      <c r="E154" t="s">
-        <v>40</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -7728,10 +7739,10 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B155" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -7761,19 +7772,19 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B156" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -7800,10 +7811,10 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B157" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -7833,10 +7844,10 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B158" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -7866,10 +7877,10 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B159" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -7899,10 +7910,10 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B160" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -7932,10 +7943,10 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B161" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -7965,10 +7976,10 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B162" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -7998,10 +8009,10 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B163" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -8031,10 +8042,10 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B164" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -8064,10 +8075,10 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B165" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -8097,10 +8108,10 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B166" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -8130,19 +8141,19 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B167" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E167" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -8169,10 +8180,10 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B168" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -8202,10 +8213,10 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B169" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -8235,10 +8246,10 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B170" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -8268,10 +8279,10 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B171" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -8301,10 +8312,10 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B172" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -8334,10 +8345,10 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B173" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -8367,10 +8378,10 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B174" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -8400,10 +8411,10 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B175" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -8433,10 +8444,10 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B176" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -8466,10 +8477,10 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B177" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -8499,19 +8510,19 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B178" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E178" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -8538,19 +8549,19 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B179" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E179" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -8577,10 +8588,10 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B180" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -8610,10 +8621,10 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B181" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -8643,10 +8654,10 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B182" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -8676,10 +8687,10 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B183" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -8709,10 +8720,10 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B184" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -8742,10 +8753,10 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B185" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -8775,10 +8786,10 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B186" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -8808,10 +8819,10 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B187" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -8841,10 +8852,10 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B188" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -8874,10 +8885,10 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B189" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -8907,10 +8918,10 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B190" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -8940,10 +8951,10 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B191" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -8973,10 +8984,10 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B192" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -9006,10 +9017,10 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B193" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -9039,10 +9050,10 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B194" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -9072,10 +9083,10 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>426</v>
-      </c>
-      <c r="B195" t="s">
-        <v>427</v>
+        <v>423</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>466</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -9105,10 +9116,10 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B196" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -9138,10 +9149,10 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B197" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -9171,10 +9182,10 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B198" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -9204,10 +9215,10 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B199" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -9237,10 +9248,10 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B200" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -9270,19 +9281,19 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B201" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E201" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -9309,10 +9320,10 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B202" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -9342,10 +9353,10 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B203" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -9375,10 +9386,10 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B204" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -9408,10 +9419,10 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B205" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -9441,10 +9452,10 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B206" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -9474,10 +9485,10 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B207" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -9507,10 +9518,10 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B208" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -9540,10 +9551,10 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B209" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -9573,10 +9584,10 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B210" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -9606,10 +9617,10 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B211" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -9639,19 +9650,19 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B212" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E212" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -9678,10 +9689,10 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B213" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -9711,10 +9722,10 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B214" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C214">
         <v>0</v>
